--- a/plantillas/Relacion Facturas.xlsx
+++ b/plantillas/Relacion Facturas.xlsx
@@ -1,121 +1,119 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc Trans\Desktop\Cuentas\Cuenta-Pista-Sep-2024\21101\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59DB0E20-06B4-455D-A087-1F77C04B0E63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="19755" windowHeight="11175" xr2:uid="{B9495B94-8524-4139-90AB-6BC751E5EDEB}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Hoja1!$A$1:$D$43</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0" hidden="0">Hoja1!$A$1:$D$32</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t xml:space="preserve">Ejército Mexicano.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pagaduría C.M.G.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cnto. Nal. Adto.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relación de Facturas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Relación de facturas correspondientes al mes de {{MES}} del 2025, de los recursos asignados a la Partida Presupuestal {{PARTIDA}} "{{DESCRIPCION}}.".</t>
+  </si>
+  <si>
+    <t>Fecha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Numero de
+Factura.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nombre  o razón social.</t>
+  </si>
+  <si>
+    <t>Importe</t>
+  </si>
+  <si>
+    <t>{{FECHA_FACTURA}}</t>
+  </si>
+  <si>
+    <t>{{FOLIO_SERIE}}</t>
+  </si>
+  <si>
+    <t>{{NOMBRE}}</t>
+  </si>
+  <si>
+    <t>{{TOTAL}}</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>{{SUMA_TOTALES}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campo Militar No. 42-A, Santa Gertrudis, Chih., a {{FECHA_DOCUMETO}}.</t>
+  </si>
   <si>
     <t xml:space="preserve">                         </t>
   </si>
   <si>
+    <t xml:space="preserve">V/o.      B/o.</t>
+  </si>
+  <si>
+    <t>{{GRADO_VO_BO}}</t>
+  </si>
+  <si>
+    <t>{NOMBRE_VO_BO}}</t>
+  </si>
+  <si>
+    <t>({{MATRICULA_VO_BO}}).</t>
+  </si>
+  <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Ejército Mexicano.</t>
-  </si>
-  <si>
-    <t>Pagaduría C.M.G.</t>
-  </si>
-  <si>
-    <t>Cnto. Nal. Adto.</t>
-  </si>
-  <si>
-    <t>Relación de Facturas</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Fecha</t>
-  </si>
-  <si>
-    <t>Numero de
-Factura.</t>
-  </si>
-  <si>
-    <t>Nombre  o razón social.</t>
-  </si>
-  <si>
-    <t>Importe</t>
-  </si>
-  <si>
-    <t>Relación de facturas correspondientes al mes de septiembre del 2024, de los recursos asignados a la Partida Presupuestal 21101 "MATERIAL Y ÚTILES DE OFICINA.".</t>
-  </si>
-  <si>
-    <t>09 oct. 2024</t>
-  </si>
-  <si>
-    <t>POSM7709235</t>
-  </si>
-  <si>
-    <t>OFFICE DEPOT DE MEXICO</t>
-  </si>
-  <si>
-    <t>Campo Militar No. 42-A, Santa Gertrudis, Chih., a 24 de octubre del 2024.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="_-\$* #,##0.00_-;&quot;-$&quot;* #,##0.00_-;_-\$* \-??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="_-[$$-80A]* #,##0.00_-;\-[$$-80A]* #,##0.00_-;_-[$$-80A]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
+      <color theme="1"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="10.000000"/>
       <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <name val="Geomanist"/>
-      <family val="3"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <name val="Geomanist"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -128,89 +126,86 @@
   </fills>
   <borders count="2">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
-      <diagonal/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="164" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+  <cellXfs count="20">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="3" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="164" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="2" fillId="0" borderId="1" numFmtId="165" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -218,7 +213,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -231,37 +226,31 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main">
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>46354</xdr:rowOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>141603</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1330141</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>166803</xdr:rowOff>
+      <xdr:colOff>1724024</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
+    <xdr:sp fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1025" name="Text Box 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{126BB745-F2AF-17C8-B0CA-E381A3846516}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1025" name="Text Box 1"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="4370704"/>
-          <a:ext cx="3749491" cy="1263449"/>
+        <a:xfrm flipH="0" flipV="0">
+          <a:off x="0" y="3780153"/>
+          <a:ext cx="4143374" cy="1249045"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -279,7 +268,7 @@
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="20160" tIns="20160" rIns="20160" bIns="20160" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr algn="ctr">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
@@ -287,86 +276,93 @@
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+              <a:latin typeface="Montserrat"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:t>Efectuó el pago:</a:t>
           </a:r>
+          <a:endParaRPr/>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0"/>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="0" i="0" baseline="0">
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0">
+              <a:latin typeface="Montserrat"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial"/>
             </a:rPr>
             <a:t>El Cap. 1/o. I.C.I., Comis. Habilitado. </a:t>
           </a:r>
           <a:endParaRPr lang="es-ES" sz="1100">
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            <a:latin typeface="Montserrat"/>
+            <a:cs typeface="Arial"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0" fontAlgn="base"/>
-          <a:endParaRPr lang="es-MX" sz="1100" b="0" i="0" baseline="0">
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX" sz="1100" b="0" i="0">
+            <a:latin typeface="Montserrat"/>
             <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0" fontAlgn="base"/>
-          <a:endParaRPr lang="es-MX" sz="1100" b="0" i="0" baseline="0">
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX" sz="1100" b="0" i="0">
+            <a:latin typeface="Montserrat"/>
             <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="Arial" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0"/>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0">
+              <a:latin typeface="Montserrat"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial"/>
             </a:rPr>
             <a:t>José Madain Estrada Vazquez.</a:t>
           </a:r>
           <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:latin typeface="Montserrat"/>
+            <a:cs typeface="Arial"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0"/>
+          <a:pPr algn="ctr">
+            <a:defRPr/>
+          </a:pPr>
           <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0">
+              <a:latin typeface="Montserrat"/>
               <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial"/>
             </a:rPr>
             <a:t>(C-1406477).</a:t>
           </a:r>
           <a:endParaRPr lang="es-MX" sz="1100">
-            <a:effectLst/>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:latin typeface="Montserrat"/>
+            <a:cs typeface="Arial"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr algn="ctr">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:endParaRPr lang="es-ES" sz="1100" b="0" i="0" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+            <a:latin typeface="Montserrat"/>
             <a:cs typeface="Arial"/>
           </a:endParaRPr>
         </a:p>
@@ -374,36 +370,30 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="twoCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1983740</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>30481</xdr:rowOff>
+      <xdr:colOff>1724024</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>143192</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>1533511</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>1609724</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>84136</xdr:rowOff>
     </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
+    <xdr:sp fLocksText="0">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="1026" name="Text Box 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7AE703A-3103-DC3F-E119-932A34745762}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="1026" name="Text Box 2"/>
         <xdr:cNvSpPr txBox="1">
           <a:spLocks noChangeArrowheads="1"/>
         </xdr:cNvSpPr>
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="4403090" y="4354831"/>
-          <a:ext cx="3902696" cy="1293494"/>
+        <a:xfrm flipH="0" flipV="0">
+          <a:off x="4143374" y="3781742"/>
+          <a:ext cx="4238624" cy="1150618"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -421,222 +411,92 @@
         <a:bodyPr vertOverflow="clip" wrap="square" lIns="20160" tIns="20160" rIns="20160" bIns="20160" anchor="t" upright="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr algn="ctr">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+              <a:latin typeface="Montserrat"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:t>  Elaboró:</a:t>
           </a:r>
+          <a:endParaRPr/>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr algn="ctr">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+              <a:latin typeface="Montserrat"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:t>El Sargento 2/o. Transmisiones. </a:t>
           </a:r>
+          <a:endParaRPr/>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr algn="ctr">
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+            <a:latin typeface="Montserrat"/>
             <a:cs typeface="Arial"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr algn="ctr">
             <a:defRPr sz="1000"/>
           </a:pPr>
-          <a:endParaRPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+          <a:endParaRPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
             <a:solidFill>
               <a:srgbClr val="000000"/>
             </a:solidFill>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+            <a:latin typeface="Montserrat"/>
             <a:cs typeface="Arial"/>
           </a:endParaRPr>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr algn="ctr">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+              <a:latin typeface="Montserrat"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:t>Edgar David González Hernández.</a:t>
           </a:r>
+          <a:endParaRPr/>
         </a:p>
         <a:p>
-          <a:pPr algn="ctr" rtl="0">
+          <a:pPr algn="ctr">
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:rPr lang="es-MX" sz="1100" b="0" i="0" u="none" strike="noStrike">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
+              <a:latin typeface="Montserrat"/>
               <a:cs typeface="Arial"/>
             </a:rPr>
             <a:t>(C-8777943).</a:t>
           </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>161926</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="" fLocksText="0">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="1027" name="Text Box 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4777765B-1785-9429-6A50-27F41BB91245}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="5905501"/>
-          <a:ext cx="8410575" cy="1247775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-        <a:effectLst/>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="20160" tIns="20160" rIns="20160" bIns="20160" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>V/o.                            B/o.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>El Gral. Bgda. D.E.M., Comandante. </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES" sz="1100" b="0" i="0" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:endParaRPr lang="es-ES" sz="1100" b="0" i="0" strike="noStrike">
-            <a:solidFill>
-              <a:srgbClr val="000000"/>
-            </a:solidFill>
-            <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-            <a:cs typeface="Arial"/>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>Manuel Alejandro Velasco Villanueva.</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="ctr" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-ES" sz="1100" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Montserrat" pitchFamily="2" charset="77"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>(B-4995798)</a:t>
-          </a:r>
+          <a:endParaRPr/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -645,8 +505,8 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -691,13 +551,13 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Angsana New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -725,13 +585,13 @@
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
         <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Thai" typeface="Cordia New"/>
         <a:font script="Ethi" typeface="Nyala"/>
         <a:font script="Beng" typeface="Vrinda"/>
         <a:font script="Gujr" typeface="Shruti"/>
@@ -923,6 +783,216 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
   <a:objectDefaults>
     <a:spDef>
       <a:spPr bwMode="auto">
@@ -950,9 +1020,8 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:effectLst/>
       </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:bodyPr/>
       <a:lstStyle/>
     </a:spDef>
     <a:lnDef>
@@ -981,266 +1050,298 @@
           <a:headEnd type="none" w="med" len="med"/>
           <a:tailEnd type="none" w="med" len="med"/>
         </a:ln>
-        <a:effectLst/>
       </a:spPr>
-      <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" upright="1"/>
+      <a:bodyPr/>
       <a:lstStyle/>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4564ACFC-EF9E-460A-A8CB-6D9B4A05047C}">
-  <dimension ref="A1:F47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A16" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView view="pageBreakPreview" zoomScale="100" workbookViewId="0">
+      <selection activeCell="C17" activeCellId="0" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="19" style="2" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="65.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="2"/>
-    <col min="6" max="6" width="12.42578125" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="11.42578125" style="2"/>
+    <col customWidth="1" min="1" max="1" style="1" width="19"/>
+    <col customWidth="1" min="2" max="2" style="1" width="17.28515625"/>
+    <col bestFit="1" customWidth="1" min="3" max="3" style="1" width="65.28515625"/>
+    <col customWidth="1" min="4" max="4" style="2" width="24.140625"/>
+    <col min="5" max="5" style="1" width="11.42578125"/>
+    <col customWidth="1" min="6" max="6" style="1" width="12.42578125"/>
+    <col min="7" max="16384" style="1" width="11.42578125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" ht="15">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+    </row>
+    <row r="3" ht="15">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="4">
+      <c r="D4" s="6"/>
+    </row>
+    <row r="5" ht="26.25" customHeight="1">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" ht="11.25" customHeight="1">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" ht="30.75" customHeight="1">
+      <c r="A7" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D4" s="5"/>
-    </row>
-    <row r="5" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" ht="15.75" customHeight="1">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="11"/>
+    </row>
+    <row r="9" ht="33.75" customHeight="1">
+      <c r="A9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="19"/>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="B9" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" ht="33.75" customHeight="1">
+      <c r="A10" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
-    </row>
-    <row r="8" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="9"/>
-    </row>
-    <row r="9" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="D10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="11" t="s">
+    </row>
+    <row r="11" ht="33.75" customHeight="1">
+      <c r="A11" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12">
-        <v>8515.2999999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="17"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="13">
-        <v>8515.2999999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
+    </row>
+    <row r="13" ht="20.25" customHeight="1">
+      <c r="A13" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B17" s="14"/>
-      <c r="D17" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B18" s="14"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D19" s="5"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D20" s="5"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="14"/>
-      <c r="F21" s="14"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B22" s="14"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="14"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="3"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="3"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="3"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="15"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="3"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="3"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="3"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="3"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="3"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="1"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="3"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="1"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="3"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="1"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1"/>
-      <c r="D39" s="3"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="1"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1"/>
-      <c r="D40" s="3"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D47" s="16" t="s">
-        <v>1</v>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="17" ht="15">
+      <c r="B17" s="17"/>
+      <c r="D17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+    </row>
+    <row r="18">
+      <c r="B18" s="17"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+    </row>
+    <row r="19">
+      <c r="D19" s="6"/>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20">
+      <c r="D20" s="6"/>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="17"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="17"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="17"/>
+      <c r="F22" s="17"/>
+    </row>
+    <row r="25" ht="12.75">
+      <c r="A25" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="B25" s="18"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
+    </row>
+    <row r="26" ht="12.75">
+      <c r="A26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B26" s="18"/>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" ht="12.75">
+      <c r="A29" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+    </row>
+    <row r="30" ht="12.75">
+      <c r="A30" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B30" s="18"/>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="19"/>
+      <c r="B32" s="19"/>
+      <c r="C32" s="19"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="47" ht="15">
+      <c r="D47" s="2" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A13:D13"/>
+  <mergeCells count="9">
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A7:D7"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A26:D26"/>
+    <mergeCell ref="A29:D29"/>
+    <mergeCell ref="A30:D30"/>
   </mergeCells>
-  <phoneticPr fontId="0" type="noConversion"/>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.59055118110236227" right="0.59055118110236227" top="0.59055118110236227" bottom="0.59055118110236227" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup scale="69" firstPageNumber="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
-  <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <printOptions headings="0" gridLines="0" horizontalCentered="1"/>
+  <pageMargins left="0.59055118110236238" right="0.59055118110236238" top="0.59055118110236238" bottom="0.59055118110236238" header="0.51181102362204722" footer="0.51181102362204722"/>
+  <pageSetup paperSize="9" scale="69" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="4294967293" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>